--- a/sem1/DB_CО-ИП-21-2.xlsx
+++ b/sem1/DB_CО-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F988219-A7A8-F64C-8765-5F645D063350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB06B7-F3BC-2F4A-AFFE-17C8B40BBD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -222,6 +222,18 @@
   <si>
     <t>Лаб 4</t>
   </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Лаб 6</t>
+  </si>
+  <si>
+    <t>Лаб 7</t>
+  </si>
+  <si>
+    <t>Лаб 8</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -276,6 +288,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -433,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,6 +580,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,7 +1812,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1833,8 +1851,12 @@
       <c r="H1" s="36">
         <v>45194</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="36">
+        <v>45204</v>
+      </c>
+      <c r="J1" s="3">
+        <v>45208</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1886,8 +1908,12 @@
       <c r="H2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1939,8 +1965,12 @@
       <c r="H3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1992,8 +2022,12 @@
       <c r="H4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -2045,8 +2079,12 @@
       <c r="H5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2098,8 +2136,12 @@
       <c r="H6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2151,8 +2193,12 @@
       <c r="H7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2204,8 +2250,12 @@
       <c r="H8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2257,8 +2307,12 @@
       <c r="H9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -2310,8 +2364,12 @@
       <c r="H10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2363,8 +2421,12 @@
       <c r="H11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2416,8 +2478,12 @@
       <c r="H12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2469,8 +2535,12 @@
       <c r="H13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2522,8 +2592,12 @@
       <c r="H14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2575,8 +2649,12 @@
       <c r="H15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2611,7 +2689,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2662,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2698,10 +2776,18 @@
       <c r="F1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="K1" s="23"/>
       <c r="L1" s="48"/>
       <c r="M1" s="11"/>
@@ -2932,7 +3018,9 @@
       <c r="C10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -2956,8 +3044,12 @@
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
@@ -2993,8 +3085,12 @@
       <c r="F12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
@@ -3026,10 +3122,18 @@
       <c r="F13" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="G13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="48"/>
       <c r="M13" s="11"/>
@@ -3128,6 +3232,7 @@
       <c r="L17" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3141,16 +3246,18 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="21" customWidth="1"/>
+    <col min="12" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3180,11 +3287,21 @@
       <c r="H1" s="36">
         <v>45194</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="I1" s="36">
+        <v>45196</v>
+      </c>
+      <c r="J1" s="36">
+        <v>45197</v>
+      </c>
+      <c r="K1" s="36">
+        <v>45199</v>
+      </c>
+      <c r="L1" s="3">
+        <v>45204</v>
+      </c>
+      <c r="M1" s="3">
+        <v>45208</v>
+      </c>
       <c r="N1" s="4"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3232,11 +3349,21 @@
       <c r="H2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -3284,11 +3411,21 @@
       <c r="H3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -3336,11 +3473,21 @@
       <c r="H4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -3388,11 +3535,21 @@
       <c r="H5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="I5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -3440,11 +3597,21 @@
       <c r="H6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="I6" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -3492,11 +3659,21 @@
       <c r="H7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="I7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -3544,11 +3721,21 @@
       <c r="H8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="I8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -3588,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>4</v>
@@ -3596,11 +3783,21 @@
       <c r="H9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -3648,11 +3845,21 @@
       <c r="H10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="I10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -3700,11 +3907,21 @@
       <c r="H11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="I11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -3752,11 +3969,21 @@
       <c r="H12" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="I12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -3804,11 +4031,21 @@
       <c r="H13" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="I13" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -3840,7 +4077,7 @@
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -3890,7 +4127,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="225" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3919,7 +4156,9 @@
       <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -3975,7 +4214,9 @@
       <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="19"/>
@@ -4125,7 +4366,9 @@
       <c r="C12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
